--- a/Code/Results/Cases/Case_3_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.618690694480449</v>
+        <v>1.202382356775502</v>
       </c>
       <c r="C2">
-        <v>1.040653500569022</v>
+        <v>0.3362148038159205</v>
       </c>
       <c r="D2">
-        <v>0.05914238760814783</v>
+        <v>0.02038419427572791</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3160755334020138</v>
+        <v>0.3834850062737729</v>
       </c>
       <c r="G2">
-        <v>0.2150868183252257</v>
+        <v>0.2346391638160554</v>
       </c>
       <c r="H2">
-        <v>0.1618183962448185</v>
+        <v>0.403514836126341</v>
       </c>
       <c r="I2">
-        <v>0.05645478739718079</v>
+        <v>0.2472595070819583</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.149565020280761</v>
+        <v>1.053040124645179</v>
       </c>
       <c r="C3">
-        <v>0.9090123992030215</v>
+        <v>0.2941235210392961</v>
       </c>
       <c r="D3">
-        <v>0.0521626925853127</v>
+        <v>0.01801444738944724</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2886901535128246</v>
+        <v>0.3852676611739483</v>
       </c>
       <c r="G3">
-        <v>0.1948315212695206</v>
+        <v>0.2371158725544404</v>
       </c>
       <c r="H3">
-        <v>0.1618096798967841</v>
+        <v>0.4107019864815342</v>
       </c>
       <c r="I3">
-        <v>0.06782876334037624</v>
+        <v>0.2566918009935053</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.862053899689215</v>
+        <v>0.9610690578164736</v>
       </c>
       <c r="C4">
-        <v>0.8283384882550706</v>
+        <v>0.268170013557949</v>
       </c>
       <c r="D4">
-        <v>0.0478881387351322</v>
+        <v>0.0165544840562788</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2735981313740581</v>
+        <v>0.3869363474800025</v>
       </c>
       <c r="G4">
-        <v>0.1841393714995476</v>
+        <v>0.2391348160629647</v>
       </c>
       <c r="H4">
-        <v>0.1628264228592755</v>
+        <v>0.4155451368749326</v>
       </c>
       <c r="I4">
-        <v>0.07591364116509336</v>
+        <v>0.2628852308347849</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.74497349331989</v>
+        <v>0.9235230683864302</v>
       </c>
       <c r="C5">
-        <v>0.7954863601044906</v>
+        <v>0.257566726401933</v>
       </c>
       <c r="D5">
-        <v>0.04614821451801987</v>
+        <v>0.01595833916409362</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2678484967417916</v>
+        <v>0.3877599089007333</v>
       </c>
       <c r="G5">
-        <v>0.1801862220624741</v>
+        <v>0.2400818410016754</v>
       </c>
       <c r="H5">
-        <v>0.163481870710001</v>
+        <v>0.4176265868993241</v>
       </c>
       <c r="I5">
-        <v>0.07946827677242396</v>
+        <v>0.2655096991807744</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.725535942265196</v>
+        <v>0.9172845948604049</v>
       </c>
       <c r="C6">
-        <v>0.7900322520027885</v>
+        <v>0.2558044402767905</v>
       </c>
       <c r="D6">
-        <v>0.04585940029377156</v>
+        <v>0.0158592786410594</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2669170425030245</v>
+        <v>0.3879053074084311</v>
       </c>
       <c r="G6">
-        <v>0.1795532277615379</v>
+        <v>0.240246571301995</v>
       </c>
       <c r="H6">
-        <v>0.1636048230682761</v>
+        <v>0.4179787122153797</v>
       </c>
       <c r="I6">
-        <v>0.08007374714998949</v>
+        <v>0.2659515517492217</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.860474642873044</v>
+        <v>0.9605629682777703</v>
       </c>
       <c r="C7">
-        <v>0.8278953590868809</v>
+        <v>0.2680271227123399</v>
       </c>
       <c r="D7">
-        <v>0.04786466642321585</v>
+        <v>0.01654644903251068</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2735190100717588</v>
+        <v>0.3869468741331232</v>
       </c>
       <c r="G7">
-        <v>0.1840844666209094</v>
+        <v>0.2391470860523128</v>
       </c>
       <c r="H7">
-        <v>0.1628343065128632</v>
+        <v>0.4155727719213544</v>
       </c>
       <c r="I7">
-        <v>0.07596054922282214</v>
+        <v>0.2629202186655171</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.456792975991277</v>
+        <v>1.150947208842183</v>
       </c>
       <c r="C8">
-        <v>0.9952218126995831</v>
+        <v>0.3217246736274433</v>
       </c>
       <c r="D8">
-        <v>0.05673301307717793</v>
+        <v>0.01956815253590349</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.306255211570182</v>
+        <v>0.3839800167516714</v>
       </c>
       <c r="G8">
-        <v>0.2077191283914317</v>
+        <v>0.2353891257462521</v>
       </c>
       <c r="H8">
-        <v>0.1615933891035723</v>
+        <v>0.4059034634468901</v>
       </c>
       <c r="I8">
-        <v>0.06013748352966353</v>
+        <v>0.2504280464055748</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.632991064488351</v>
+        <v>1.52204682681122</v>
       </c>
       <c r="C9">
-        <v>1.325355502843252</v>
+        <v>0.4261433249340598</v>
       </c>
       <c r="D9">
-        <v>0.07425072523884069</v>
+        <v>0.02545308584232231</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3856995297962769</v>
+        <v>0.3827544952042246</v>
       </c>
       <c r="G9">
-        <v>0.2695876257272829</v>
+        <v>0.2320179726888512</v>
       </c>
       <c r="H9">
-        <v>0.168037345912154</v>
+        <v>0.3903713021648301</v>
       </c>
       <c r="I9">
-        <v>0.03866059225888385</v>
+        <v>0.2291414819066695</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.505300248637809</v>
+        <v>1.793264766615721</v>
       </c>
       <c r="C10">
-        <v>1.570340800196504</v>
+        <v>0.5023096981594222</v>
       </c>
       <c r="D10">
-        <v>0.08726063940051176</v>
+        <v>0.02975042343562961</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4557343961993396</v>
+        <v>0.3847056611268513</v>
       </c>
       <c r="G10">
-        <v>0.3270234280904702</v>
+        <v>0.2320407806703457</v>
       </c>
       <c r="H10">
-        <v>0.1793354827650973</v>
+        <v>0.3810720933916798</v>
       </c>
       <c r="I10">
-        <v>0.02992274361025338</v>
+        <v>0.2154879272343528</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.904898503871152</v>
+        <v>1.916327736768039</v>
       </c>
       <c r="C11">
-        <v>1.682621365375724</v>
+        <v>0.5368383205453142</v>
       </c>
       <c r="D11">
-        <v>0.09322525913415802</v>
+        <v>0.03169938827828389</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4907076348265349</v>
+        <v>0.3862236418952421</v>
       </c>
       <c r="G11">
-        <v>0.3563702186622493</v>
+        <v>0.2326072530207881</v>
       </c>
       <c r="H11">
-        <v>0.1861824310239797</v>
+        <v>0.3773049530921782</v>
       </c>
       <c r="I11">
-        <v>0.02777381302674087</v>
+        <v>0.2097138200365265</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.056705701354872</v>
+        <v>1.962881654335945</v>
       </c>
       <c r="C12">
-        <v>1.725286735758743</v>
+        <v>0.5498958510283956</v>
       </c>
       <c r="D12">
-        <v>0.0954920226096192</v>
+        <v>0.03243652739367064</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5044521640473363</v>
+        <v>0.3868899965390327</v>
       </c>
       <c r="G12">
-        <v>0.3680027800793795</v>
+        <v>0.2329028010644691</v>
       </c>
       <c r="H12">
-        <v>0.1890467362930792</v>
+        <v>0.375945415820766</v>
       </c>
       <c r="I12">
-        <v>0.0272500705301848</v>
+        <v>0.2075906653220354</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.023988104619207</v>
+        <v>1.95285757301076</v>
       </c>
       <c r="C13">
-        <v>1.716090980864749</v>
+        <v>0.5470844733388844</v>
       </c>
       <c r="D13">
-        <v>0.09500345027480961</v>
+        <v>0.03227781159104381</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5014688563564533</v>
+        <v>0.3867424004138584</v>
       </c>
       <c r="G13">
-        <v>0.3654734323297788</v>
+        <v>0.2328355283146237</v>
       </c>
       <c r="H13">
-        <v>0.1884173411030901</v>
+        <v>0.3762352303967305</v>
       </c>
       <c r="I13">
-        <v>0.02734950561722904</v>
+        <v>0.2080450974915546</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.917377457249529</v>
+        <v>1.920158716058154</v>
       </c>
       <c r="C14">
-        <v>1.686128357467794</v>
+        <v>0.5379129290578817</v>
       </c>
       <c r="D14">
-        <v>0.09341157623658347</v>
+        <v>0.03176005125675374</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4918280444534986</v>
+        <v>0.3862766238987092</v>
       </c>
       <c r="G14">
-        <v>0.3573164799697963</v>
+        <v>0.2326299376998548</v>
       </c>
       <c r="H14">
-        <v>0.1864124799932938</v>
+        <v>0.3771917581238426</v>
       </c>
       <c r="I14">
-        <v>0.02772474603396446</v>
+        <v>0.2095378736123337</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.852141673735957</v>
+        <v>1.900123495746811</v>
       </c>
       <c r="C15">
-        <v>1.66779539730436</v>
+        <v>0.5322927730771312</v>
       </c>
       <c r="D15">
-        <v>0.0924376061660297</v>
+        <v>0.03144279079336343</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4859896640088621</v>
+        <v>0.3860032680884657</v>
       </c>
       <c r="G15">
-        <v>0.3523895467865259</v>
+        <v>0.2325145927140397</v>
       </c>
       <c r="H15">
-        <v>0.1852206168592971</v>
+        <v>0.3777863958740113</v>
       </c>
       <c r="I15">
-        <v>0.02799321671348487</v>
+        <v>0.2104605113198215</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.479248859395227</v>
+        <v>1.785215793138434</v>
       </c>
       <c r="C16">
-        <v>1.563022062524794</v>
+        <v>0.5000507190491703</v>
       </c>
       <c r="D16">
-        <v>0.08687188856765715</v>
+        <v>0.02962293144443606</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4535159072242152</v>
+        <v>0.384619217718793</v>
       </c>
       <c r="G16">
-        <v>0.3251750476000694</v>
+        <v>0.232015042076128</v>
       </c>
       <c r="H16">
-        <v>0.1789245432457705</v>
+        <v>0.3813276382750388</v>
       </c>
       <c r="I16">
-        <v>0.03010221391165224</v>
+        <v>0.2158741176581014</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.251263456984361</v>
+        <v>1.714641416909444</v>
       </c>
       <c r="C17">
-        <v>1.498979404076067</v>
+        <v>0.4802402272178483</v>
       </c>
       <c r="D17">
-        <v>0.08347033895704925</v>
+        <v>0.02850496216854026</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4344281934334475</v>
+        <v>0.3839322310042519</v>
       </c>
       <c r="G17">
-        <v>0.3093430058334263</v>
+        <v>0.2318517765120731</v>
       </c>
       <c r="H17">
-        <v>0.1755171599124594</v>
+        <v>0.3836189766942226</v>
       </c>
       <c r="I17">
-        <v>0.03188244625410697</v>
+        <v>0.2193074904485073</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.120388228598074</v>
+        <v>1.674019329972225</v>
       </c>
       <c r="C18">
-        <v>1.462220635485778</v>
+        <v>0.4688345040759714</v>
       </c>
       <c r="D18">
-        <v>0.08151812557237292</v>
+        <v>0.02786138139976657</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4237390990059779</v>
+        <v>0.3835963768379358</v>
       </c>
       <c r="G18">
-        <v>0.3005361299105402</v>
+        <v>0.2318101490416069</v>
       </c>
       <c r="H18">
-        <v>0.1737163373667272</v>
+        <v>0.3849804606661422</v>
       </c>
       <c r="I18">
-        <v>0.03307647458944807</v>
+        <v>0.2213233724508665</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.076117532722037</v>
+        <v>1.660260371697575</v>
       </c>
       <c r="C19">
-        <v>1.449787171262585</v>
+        <v>0.4649708042574616</v>
       </c>
       <c r="D19">
-        <v>0.08085783167453542</v>
+        <v>0.02764338204953987</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.42016816235585</v>
+        <v>0.3834928173692802</v>
       </c>
       <c r="G19">
-        <v>0.297604033884781</v>
+        <v>0.2318050009180865</v>
       </c>
       <c r="H19">
-        <v>0.1731331670084302</v>
+        <v>0.3854489061399988</v>
       </c>
       <c r="I19">
-        <v>0.03350916809726812</v>
+        <v>0.2220129574357674</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.275505790878242</v>
+        <v>1.722157254957267</v>
       </c>
       <c r="C20">
-        <v>1.505788710957574</v>
+        <v>0.482350255933568</v>
       </c>
       <c r="D20">
-        <v>0.08383198814741633</v>
+        <v>0.02862402958571408</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4364297655483114</v>
+        <v>0.3839992200259204</v>
       </c>
       <c r="G20">
-        <v>0.3109969836301048</v>
+        <v>0.2318637380087694</v>
       </c>
       <c r="H20">
-        <v>0.1758632435963534</v>
+        <v>0.383370547905713</v>
       </c>
       <c r="I20">
-        <v>0.03167514331958188</v>
+        <v>0.2189377447813516</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.94867759879736</v>
+        <v>1.929764464050152</v>
       </c>
       <c r="C21">
-        <v>1.694924883749479</v>
+        <v>0.5406073183202125</v>
       </c>
       <c r="D21">
-        <v>0.09387891648336932</v>
+        <v>0.03191215453644247</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4946457418784647</v>
+        <v>0.386410942700472</v>
       </c>
       <c r="G21">
-        <v>0.3596977955453866</v>
+        <v>0.2326881167916071</v>
       </c>
       <c r="H21">
-        <v>0.1869937681786666</v>
+        <v>0.3769089812659132</v>
       </c>
       <c r="I21">
-        <v>0.02760642683920445</v>
+        <v>0.2090976848168218</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.391526035547258</v>
+        <v>2.06517083002899</v>
       </c>
       <c r="C22">
-        <v>1.819408586755401</v>
+        <v>0.5785782368241144</v>
       </c>
       <c r="D22">
-        <v>0.1004931052280114</v>
+        <v>0.03405591912168404</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5356413072685768</v>
+        <v>0.3885210465322047</v>
       </c>
       <c r="G22">
-        <v>0.3945852749789651</v>
+        <v>0.2336997389049031</v>
       </c>
       <c r="H22">
-        <v>0.1958646763646925</v>
+        <v>0.3730766699321748</v>
       </c>
       <c r="I22">
-        <v>0.0266522885630085</v>
+        <v>0.2030362816591875</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.154873479941557</v>
+        <v>1.992927897267407</v>
       </c>
       <c r="C23">
-        <v>1.752879832995689</v>
+        <v>0.5583220629773678</v>
       </c>
       <c r="D23">
-        <v>0.09695808874485579</v>
+        <v>0.03291224210093446</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.513472590383067</v>
+        <v>0.387345702061026</v>
       </c>
       <c r="G23">
-        <v>0.3756651568429277</v>
+        <v>0.23311619854708</v>
       </c>
       <c r="H23">
-        <v>0.1909747891572664</v>
+        <v>0.3750861653109325</v>
       </c>
       <c r="I23">
-        <v>0.02699578545768055</v>
+        <v>0.2062373657367971</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.264545225869711</v>
+        <v>1.718759493753737</v>
       </c>
       <c r="C24">
-        <v>1.502710037787494</v>
+        <v>0.4813963630293756</v>
       </c>
       <c r="D24">
-        <v>0.08366847611769401</v>
+        <v>0.02857020183664361</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4355239720170516</v>
+        <v>0.3839687502513343</v>
       </c>
       <c r="G24">
-        <v>0.3102483050824532</v>
+        <v>0.2318581675858695</v>
       </c>
       <c r="H24">
-        <v>0.1757062885666869</v>
+        <v>0.3834827250228727</v>
       </c>
       <c r="I24">
-        <v>0.03176833579812133</v>
+        <v>0.2191047760389484</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.31367675317307</v>
+        <v>1.421901177709856</v>
       </c>
       <c r="C25">
-        <v>1.235712169099315</v>
+        <v>0.3979910456552034</v>
       </c>
       <c r="D25">
-        <v>0.06949208753214009</v>
+        <v>0.02386556859976707</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3623419619949715</v>
+        <v>0.3825890069455156</v>
       </c>
       <c r="G25">
-        <v>0.2509412402494249</v>
+        <v>0.2324954889619377</v>
       </c>
       <c r="H25">
-        <v>0.1652304615608955</v>
+        <v>0.3942037907656157</v>
       </c>
       <c r="I25">
-        <v>0.04332819332821103</v>
+        <v>0.2345534106892959</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.202382356775502</v>
+        <v>3.618690694480335</v>
       </c>
       <c r="C2">
-        <v>0.3362148038159205</v>
+        <v>1.040653500569221</v>
       </c>
       <c r="D2">
-        <v>0.02038419427572791</v>
+        <v>0.05914238760826862</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3834850062737729</v>
+        <v>0.3160755334019996</v>
       </c>
       <c r="G2">
-        <v>0.2346391638160554</v>
+        <v>0.2150868183252257</v>
       </c>
       <c r="H2">
-        <v>0.403514836126341</v>
+        <v>0.1618183962448185</v>
       </c>
       <c r="I2">
-        <v>0.2472595070819583</v>
+        <v>0.05645478739717724</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.053040124645179</v>
+        <v>3.14956502028059</v>
       </c>
       <c r="C3">
-        <v>0.2941235210392961</v>
+        <v>0.9090123992027088</v>
       </c>
       <c r="D3">
-        <v>0.01801444738944724</v>
+        <v>0.05216269258522743</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3852676611739483</v>
+        <v>0.2886901535128246</v>
       </c>
       <c r="G3">
-        <v>0.2371158725544404</v>
+        <v>0.1948315212695775</v>
       </c>
       <c r="H3">
-        <v>0.4107019864815342</v>
+        <v>0.1618096798967841</v>
       </c>
       <c r="I3">
-        <v>0.2566918009935053</v>
+        <v>0.06782876334038956</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9610690578164736</v>
+        <v>2.862053899689215</v>
       </c>
       <c r="C4">
-        <v>0.268170013557949</v>
+        <v>0.8283384882550138</v>
       </c>
       <c r="D4">
-        <v>0.0165544840562788</v>
+        <v>0.04788813873504694</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3869363474800025</v>
+        <v>0.2735981313740652</v>
       </c>
       <c r="G4">
-        <v>0.2391348160629647</v>
+        <v>0.1841393714995476</v>
       </c>
       <c r="H4">
-        <v>0.4155451368749326</v>
+        <v>0.1628264228592826</v>
       </c>
       <c r="I4">
-        <v>0.2628852308347849</v>
+        <v>0.07591364116510579</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9235230683864302</v>
+        <v>2.744973493319947</v>
       </c>
       <c r="C5">
-        <v>0.257566726401933</v>
+        <v>0.7954863601049169</v>
       </c>
       <c r="D5">
-        <v>0.01595833916409362</v>
+        <v>0.04614821451820461</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3877599089007333</v>
+        <v>0.26784849674182</v>
       </c>
       <c r="G5">
-        <v>0.2400818410016754</v>
+        <v>0.1801862220625168</v>
       </c>
       <c r="H5">
-        <v>0.4176265868993241</v>
+        <v>0.163481870710001</v>
       </c>
       <c r="I5">
-        <v>0.2655096991807744</v>
+        <v>0.07946827677243817</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9172845948604049</v>
+        <v>2.725535942265253</v>
       </c>
       <c r="C6">
-        <v>0.2558044402767905</v>
+        <v>0.7900322520025895</v>
       </c>
       <c r="D6">
-        <v>0.0158592786410594</v>
+        <v>0.04585940029389235</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3879053074084311</v>
+        <v>0.2669170425030174</v>
       </c>
       <c r="G6">
-        <v>0.240246571301995</v>
+        <v>0.179553227761474</v>
       </c>
       <c r="H6">
-        <v>0.4179787122153797</v>
+        <v>0.1636048230682619</v>
       </c>
       <c r="I6">
-        <v>0.2659515517492217</v>
+        <v>0.08007374714998505</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9605629682777703</v>
+        <v>2.860474642873157</v>
       </c>
       <c r="C7">
-        <v>0.2680271227123399</v>
+        <v>0.8278953590869378</v>
       </c>
       <c r="D7">
-        <v>0.01654644903251068</v>
+        <v>0.04786466642321585</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3869468741331232</v>
+        <v>0.2735190100717446</v>
       </c>
       <c r="G7">
-        <v>0.2391470860523128</v>
+        <v>0.1840844666208739</v>
       </c>
       <c r="H7">
-        <v>0.4155727719213544</v>
+        <v>0.1628343065127495</v>
       </c>
       <c r="I7">
-        <v>0.2629202186655171</v>
+        <v>0.07596054922281681</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.150947208842183</v>
+        <v>3.456792975991277</v>
       </c>
       <c r="C8">
-        <v>0.3217246736274433</v>
+        <v>0.9952218126996115</v>
       </c>
       <c r="D8">
-        <v>0.01956815253590349</v>
+        <v>0.05673301307721346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3839800167516714</v>
+        <v>0.3062552115701749</v>
       </c>
       <c r="G8">
-        <v>0.2353891257462521</v>
+        <v>0.2077191283914317</v>
       </c>
       <c r="H8">
-        <v>0.4059034634468901</v>
+        <v>0.161593389103686</v>
       </c>
       <c r="I8">
-        <v>0.2504280464055748</v>
+        <v>0.06013748352967951</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.52204682681122</v>
+        <v>4.632991064488351</v>
       </c>
       <c r="C9">
-        <v>0.4261433249340598</v>
+        <v>1.325355502843195</v>
       </c>
       <c r="D9">
-        <v>0.02545308584232231</v>
+        <v>0.07425072523882648</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3827544952042246</v>
+        <v>0.3856995297962911</v>
       </c>
       <c r="G9">
-        <v>0.2320179726888512</v>
+        <v>0.2695876257272829</v>
       </c>
       <c r="H9">
-        <v>0.3903713021648301</v>
+        <v>0.1680373459120403</v>
       </c>
       <c r="I9">
-        <v>0.2291414819066695</v>
+        <v>0.0386605922588803</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.793264766615721</v>
+        <v>5.505300248637752</v>
       </c>
       <c r="C10">
-        <v>0.5023096981594222</v>
+        <v>1.570340800196732</v>
       </c>
       <c r="D10">
-        <v>0.02975042343562961</v>
+        <v>0.08726063940012807</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3847056611268513</v>
+        <v>0.4557343961993396</v>
       </c>
       <c r="G10">
-        <v>0.2320407806703457</v>
+        <v>0.3270234280904702</v>
       </c>
       <c r="H10">
-        <v>0.3810720933916798</v>
+        <v>0.1793354827650973</v>
       </c>
       <c r="I10">
-        <v>0.2154879272343528</v>
+        <v>0.02992274361023561</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.916327736768039</v>
+        <v>5.904898503871095</v>
       </c>
       <c r="C11">
-        <v>0.5368383205453142</v>
+        <v>1.682621365375269</v>
       </c>
       <c r="D11">
-        <v>0.03169938827828389</v>
+        <v>0.09322525913417223</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3862236418952421</v>
+        <v>0.4907076348265491</v>
       </c>
       <c r="G11">
-        <v>0.2326072530207881</v>
+        <v>0.3563702186621924</v>
       </c>
       <c r="H11">
-        <v>0.3773049530921782</v>
+        <v>0.1861824310239939</v>
       </c>
       <c r="I11">
-        <v>0.2097138200365265</v>
+        <v>0.02777381302673909</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.962881654335945</v>
+        <v>6.056705701354645</v>
       </c>
       <c r="C12">
-        <v>0.5498958510283956</v>
+        <v>1.725286735758971</v>
       </c>
       <c r="D12">
-        <v>0.03243652739367064</v>
+        <v>0.09549202260944867</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3868899965390327</v>
+        <v>0.5044521640473434</v>
       </c>
       <c r="G12">
-        <v>0.2329028010644691</v>
+        <v>0.3680027800793368</v>
       </c>
       <c r="H12">
-        <v>0.375945415820766</v>
+        <v>0.1890467362929655</v>
       </c>
       <c r="I12">
-        <v>0.2075906653220354</v>
+        <v>0.02725007053018658</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.95285757301076</v>
+        <v>6.023988104619264</v>
       </c>
       <c r="C13">
-        <v>0.5470844733388844</v>
+        <v>1.716090980864749</v>
       </c>
       <c r="D13">
-        <v>0.03227781159104381</v>
+        <v>0.09500345027480961</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3867424004138584</v>
+        <v>0.5014688563564746</v>
       </c>
       <c r="G13">
-        <v>0.2328355283146237</v>
+        <v>0.3654734323297788</v>
       </c>
       <c r="H13">
-        <v>0.3762352303967305</v>
+        <v>0.1884173411029764</v>
       </c>
       <c r="I13">
-        <v>0.2080450974915546</v>
+        <v>0.02734950561723259</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.920158716058154</v>
+        <v>5.917377457249245</v>
       </c>
       <c r="C14">
-        <v>0.5379129290578817</v>
+        <v>1.68612835746768</v>
       </c>
       <c r="D14">
-        <v>0.03176005125675374</v>
+        <v>0.09341157623637031</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3862766238987092</v>
+        <v>0.4918280444535128</v>
       </c>
       <c r="G14">
-        <v>0.2326299376998548</v>
+        <v>0.3573164799697395</v>
       </c>
       <c r="H14">
-        <v>0.3771917581238426</v>
+        <v>0.1864124799934075</v>
       </c>
       <c r="I14">
-        <v>0.2095378736123337</v>
+        <v>0.02772474603395025</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.900123495746811</v>
+        <v>5.852141673735957</v>
       </c>
       <c r="C15">
-        <v>0.5322927730771312</v>
+        <v>1.667795397304417</v>
       </c>
       <c r="D15">
-        <v>0.03144279079336343</v>
+        <v>0.0924376061659089</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3860032680884657</v>
+        <v>0.4859896640088479</v>
       </c>
       <c r="G15">
-        <v>0.2325145927140397</v>
+        <v>0.3523895467864975</v>
       </c>
       <c r="H15">
-        <v>0.3777863958740113</v>
+        <v>0.1852206168592971</v>
       </c>
       <c r="I15">
-        <v>0.2104605113198215</v>
+        <v>0.02799321671347066</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.785215793138434</v>
+        <v>5.479248859395398</v>
       </c>
       <c r="C16">
-        <v>0.5000507190491703</v>
+        <v>1.563022062524738</v>
       </c>
       <c r="D16">
-        <v>0.02962293144443606</v>
+        <v>0.08687188856750794</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.384619217718793</v>
+        <v>0.4535159072242223</v>
       </c>
       <c r="G16">
-        <v>0.232015042076128</v>
+        <v>0.3251750476000126</v>
       </c>
       <c r="H16">
-        <v>0.3813276382750388</v>
+        <v>0.1789245432457705</v>
       </c>
       <c r="I16">
-        <v>0.2158741176581014</v>
+        <v>0.03010221391165047</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.714641416909444</v>
+        <v>5.251263456984304</v>
       </c>
       <c r="C17">
-        <v>0.4802402272178483</v>
+        <v>1.498979404075726</v>
       </c>
       <c r="D17">
-        <v>0.02850496216854026</v>
+        <v>0.08347033895707767</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3839322310042519</v>
+        <v>0.4344281934334404</v>
       </c>
       <c r="G17">
-        <v>0.2318517765120731</v>
+        <v>0.3093430058333553</v>
       </c>
       <c r="H17">
-        <v>0.3836189766942226</v>
+        <v>0.1755171599124736</v>
       </c>
       <c r="I17">
-        <v>0.2193074904485073</v>
+        <v>0.03188244625412118</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.674019329972225</v>
+        <v>5.120388228598017</v>
       </c>
       <c r="C18">
-        <v>0.4688345040759714</v>
+        <v>1.462220635485721</v>
       </c>
       <c r="D18">
-        <v>0.02786138139976657</v>
+        <v>0.08151812557223792</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3835963768379358</v>
+        <v>0.4237390990059922</v>
       </c>
       <c r="G18">
-        <v>0.2318101490416069</v>
+        <v>0.3005361299105829</v>
       </c>
       <c r="H18">
-        <v>0.3849804606661422</v>
+        <v>0.173716337366713</v>
       </c>
       <c r="I18">
-        <v>0.2213233724508665</v>
+        <v>0.03307647458944629</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.660260371697575</v>
+        <v>5.076117532721923</v>
       </c>
       <c r="C19">
-        <v>0.4649708042574616</v>
+        <v>1.449787171261903</v>
       </c>
       <c r="D19">
-        <v>0.02764338204953987</v>
+        <v>0.08085783167442173</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3834928173692802</v>
+        <v>0.4201681623558571</v>
       </c>
       <c r="G19">
-        <v>0.2318050009180865</v>
+        <v>0.2976040338848094</v>
       </c>
       <c r="H19">
-        <v>0.3854489061399988</v>
+        <v>0.1731331670084302</v>
       </c>
       <c r="I19">
-        <v>0.2220129574357674</v>
+        <v>0.03350916809728233</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.722157254957267</v>
+        <v>5.275505790878526</v>
       </c>
       <c r="C20">
-        <v>0.482350255933568</v>
+        <v>1.505788710957574</v>
       </c>
       <c r="D20">
-        <v>0.02862402958571408</v>
+        <v>0.08383198814755133</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3839992200259204</v>
+        <v>0.43642976554829</v>
       </c>
       <c r="G20">
-        <v>0.2318637380087694</v>
+        <v>0.3109969836301616</v>
       </c>
       <c r="H20">
-        <v>0.383370547905713</v>
+        <v>0.1758632435962539</v>
       </c>
       <c r="I20">
-        <v>0.2189377447813516</v>
+        <v>0.03167514331957832</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.929764464050152</v>
+        <v>5.948677598797588</v>
       </c>
       <c r="C21">
-        <v>0.5406073183202125</v>
+        <v>1.694924883749309</v>
       </c>
       <c r="D21">
-        <v>0.03191215453644247</v>
+        <v>0.09387891648348301</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.386410942700472</v>
+        <v>0.4946457418784433</v>
       </c>
       <c r="G21">
-        <v>0.2326881167916071</v>
+        <v>0.3596977955454435</v>
       </c>
       <c r="H21">
-        <v>0.3769089812659132</v>
+        <v>0.186993768178553</v>
       </c>
       <c r="I21">
-        <v>0.2090976848168218</v>
+        <v>0.02760642683921866</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.06517083002899</v>
+        <v>6.391526035547145</v>
       </c>
       <c r="C22">
-        <v>0.5785782368241144</v>
+        <v>1.819408586755401</v>
       </c>
       <c r="D22">
-        <v>0.03405591912168404</v>
+        <v>0.1004931052280114</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3885210465322047</v>
+        <v>0.5356413072685768</v>
       </c>
       <c r="G22">
-        <v>0.2336997389049031</v>
+        <v>0.3945852749789225</v>
       </c>
       <c r="H22">
-        <v>0.3730766699321748</v>
+        <v>0.1958646763645646</v>
       </c>
       <c r="I22">
-        <v>0.2030362816591875</v>
+        <v>0.0266522885630085</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992927897267407</v>
+        <v>6.154873479941784</v>
       </c>
       <c r="C23">
-        <v>0.5583220629773678</v>
+        <v>1.752879832995575</v>
       </c>
       <c r="D23">
-        <v>0.03291224210093446</v>
+        <v>0.09695808874496947</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.387345702061026</v>
+        <v>0.5134725903830883</v>
       </c>
       <c r="G23">
-        <v>0.23311619854708</v>
+        <v>0.3756651568429135</v>
       </c>
       <c r="H23">
-        <v>0.3750861653109325</v>
+        <v>0.1909747891572664</v>
       </c>
       <c r="I23">
-        <v>0.2062373657367971</v>
+        <v>0.02699578545769299</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.718759493753737</v>
+        <v>5.26454522586954</v>
       </c>
       <c r="C24">
-        <v>0.4813963630293756</v>
+        <v>1.502710037787324</v>
       </c>
       <c r="D24">
-        <v>0.02857020183664361</v>
+        <v>0.08366847611786454</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3839687502513343</v>
+        <v>0.4355239720170516</v>
       </c>
       <c r="G24">
-        <v>0.2318581675858695</v>
+        <v>0.3102483050824532</v>
       </c>
       <c r="H24">
-        <v>0.3834827250228727</v>
+        <v>0.1757062885666869</v>
       </c>
       <c r="I24">
-        <v>0.2191047760389484</v>
+        <v>0.03176833579811777</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.421901177709856</v>
+        <v>4.313676753173127</v>
       </c>
       <c r="C25">
-        <v>0.3979910456552034</v>
+        <v>1.235712169099543</v>
       </c>
       <c r="D25">
-        <v>0.02386556859976707</v>
+        <v>0.06949208753213298</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3825890069455156</v>
+        <v>0.3623419619949715</v>
       </c>
       <c r="G25">
-        <v>0.2324954889619377</v>
+        <v>0.250941240249432</v>
       </c>
       <c r="H25">
-        <v>0.3942037907656157</v>
+        <v>0.1652304615608955</v>
       </c>
       <c r="I25">
-        <v>0.2345534106892959</v>
+        <v>0.04332819332819327</v>
       </c>
       <c r="J25">
         <v>0</v>
